--- a/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="163">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>arrested</t>
   </si>
   <si>
@@ -52,105 +49,117 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>anxiety</t>
   </si>
   <si>
     <t>fear</t>
   </si>
   <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>shame</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>shortage</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>isolation</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -160,349 +169,331 @@
     <t>corona</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>better</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>wish</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>contest</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>worth</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>gold</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>helping</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
-    <t>helping</t>
+    <t>open</t>
   </si>
   <si>
     <t>community</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>data</t>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>amazon</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>want</t>
   </si>
   <si>
-    <t>line</t>
-  </si>
-  <si>
     <t>health</t>
   </si>
   <si>
     <t>staff</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>everyone</t>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>customers</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>shopping</t>
+    <t>new</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
-    <t>also</t>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>read</t>
   </si>
   <si>
     <t>local</t>
   </si>
   <si>
-    <t>hands</t>
+    <t>items</t>
+  </si>
+  <si>
+    <t>news</t>
   </si>
   <si>
     <t>retail</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>news</t>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>today</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
-    <t>today</t>
-  </si>
-  <si>
     <t>stores</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>keep</t>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>still</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>san</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>shop</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>shop</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
     <t>go</t>
   </si>
   <si>
-    <t>workers</t>
-  </si>
-  <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>amp</t>
   </si>
   <si>
     <t>toilet</t>
@@ -869,7 +860,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q120"/>
+  <dimension ref="A1:Q114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -877,10 +868,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -941,34 +932,34 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>13</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>13</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>26</v>
-      </c>
-      <c r="M3">
-        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -988,13 +979,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1006,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1038,13 +1029,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9705882352941176</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1056,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1088,13 +1079,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8333333333333334</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1106,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>0.9565217391304348</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1130,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1138,13 +1129,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8076923076923077</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1159,16 +1150,16 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K7">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L7">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1180,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1188,13 +1179,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7368421052631579</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1206,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K8">
-        <v>0.9473684210526315</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L8">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1230,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1238,13 +1229,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7241379310344828</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1256,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K9">
-        <v>0.9393939393939394</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1288,13 +1279,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.72</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1306,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K10">
-        <v>0.9333333333333333</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="M10">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1330,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1338,13 +1329,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7123287671232876</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C11">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1356,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K11">
         <v>0.8888888888888888</v>
@@ -1388,13 +1379,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6923076923076923</v>
+        <v>0.68</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1409,16 +1400,16 @@
         <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K12">
-        <v>0.8723404255319149</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1430,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1438,13 +1429,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6756756756756757</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1456,19 +1447,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K13">
-        <v>0.8636363636363636</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1480,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1488,13 +1479,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.65</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1506,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K14">
-        <v>0.8611111111111112</v>
+        <v>0.8359375</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1530,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1559,16 +1550,16 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K15">
-        <v>0.8482142857142857</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L15">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1580,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1588,13 +1579,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6153846153846154</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1606,31 +1597,31 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16">
+        <v>0.8170731707317073</v>
+      </c>
+      <c r="L16">
+        <v>67</v>
+      </c>
+      <c r="M16">
+        <v>67</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>15</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L16">
-        <v>20</v>
-      </c>
-      <c r="M16">
-        <v>20</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1659,16 +1650,16 @@
         <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K17">
-        <v>0.8292682926829268</v>
+        <v>0.8125</v>
       </c>
       <c r="L17">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M17">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1680,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1688,49 +1679,49 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6052631578947368</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18">
+        <v>0.8083333333333333</v>
+      </c>
+      <c r="L18">
+        <v>97</v>
+      </c>
+      <c r="M18">
+        <v>97</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>23</v>
-      </c>
-      <c r="D18">
-        <v>23</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>15</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18">
-        <v>0.828125</v>
-      </c>
-      <c r="L18">
-        <v>106</v>
-      </c>
-      <c r="M18">
-        <v>106</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1738,13 +1729,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1756,31 +1747,31 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>13</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L19">
+        <v>46</v>
+      </c>
+      <c r="M19">
+        <v>46</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>12</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L19">
-        <v>48</v>
-      </c>
-      <c r="M19">
-        <v>48</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1788,13 +1779,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5806451612903226</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1806,19 +1797,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K20">
-        <v>0.8214285714285714</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1830,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1838,13 +1829,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5675675675675675</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1856,19 +1847,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K21">
-        <v>0.8166666666666667</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L21">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="M21">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1880,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1888,13 +1879,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5641025641025641</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1906,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K22">
-        <v>0.8148148148148148</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1930,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1938,13 +1929,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4722222222222222</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1956,19 +1947,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K23">
-        <v>0.8125</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L23">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="M23">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1980,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1988,13 +1979,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4563758389261745</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C24">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2006,19 +1997,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K24">
-        <v>0.7887323943661971</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2030,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2038,13 +2029,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4418604651162791</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C25">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2056,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K25">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L25">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2080,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2088,13 +2079,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4333333333333333</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2106,19 +2097,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K26">
-        <v>0.7735849056603774</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L26">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="M26">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2130,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2138,13 +2129,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4333333333333333</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2156,19 +2147,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>17</v>
+        <v>282</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K27">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L27">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2180,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2188,13 +2179,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.392156862745098</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2206,19 +2197,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K28">
-        <v>0.7222222222222222</v>
+        <v>0.7375</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2230,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2238,13 +2229,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3866666666666667</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2256,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K29">
-        <v>0.7058823529411765</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2280,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2288,13 +2279,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3777777777777778</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2306,19 +2297,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K30">
-        <v>0.7021276595744681</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L30">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M30">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2330,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2338,13 +2329,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3728813559322034</v>
+        <v>0.3825503355704698</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2356,19 +2347,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K31">
-        <v>0.6956521739130435</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2380,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2388,13 +2379,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3544973544973545</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C32">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D32">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2406,19 +2397,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K32">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2430,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2438,13 +2429,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3376623376623377</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2456,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K33">
-        <v>0.6842105263157895</v>
+        <v>0.6475195822454308</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>248</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>248</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2480,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>6</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2488,13 +2479,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3333333333333333</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2506,19 +2497,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K34">
-        <v>0.6818181818181818</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2530,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2538,38 +2529,38 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3272727272727273</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C35">
+        <v>66</v>
+      </c>
+      <c r="D35">
+        <v>66</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>123</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K35">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L35">
         <v>18</v>
       </c>
-      <c r="D35">
+      <c r="M35">
         <v>18</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>37</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K35">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="L35">
-        <v>19</v>
-      </c>
-      <c r="M35">
-        <v>19</v>
-      </c>
       <c r="N35">
         <v>1</v>
       </c>
@@ -2580,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2588,13 +2579,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.325</v>
+        <v>0.3375</v>
       </c>
       <c r="C36">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D36">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2606,19 +2597,19 @@
         <v>0</v>
       </c>
       <c r="H36">
+        <v>53</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K36">
+        <v>0.6279069767441861</v>
+      </c>
+      <c r="L36">
         <v>27</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K36">
-        <v>0.6744186046511628</v>
-      </c>
-      <c r="L36">
-        <v>29</v>
-      </c>
       <c r="M36">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2630,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2638,13 +2629,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2896825396825397</v>
+        <v>0.325</v>
       </c>
       <c r="C37">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2656,19 +2647,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K37">
-        <v>0.660574412532637</v>
+        <v>0.62</v>
       </c>
       <c r="L37">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="M37">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2680,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>130</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2688,13 +2679,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.288135593220339</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D38">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2706,19 +2697,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K38">
-        <v>0.6470588235294118</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2738,37 +2729,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2658227848101266</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C39">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E39">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K39">
-        <v>0.6428571428571429</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L39">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M39">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2780,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2788,13 +2779,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1528150134048257</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C40">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2806,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>316</v>
+        <v>38</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K40">
-        <v>0.6363636363636364</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L40">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M40">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2830,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2838,7 +2829,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.09036144578313253</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C41">
         <v>15</v>
@@ -2856,19 +2847,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K41">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2888,37 +2879,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.01053639846743295</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C42">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="D42">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="E42">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>3099</v>
+        <v>182</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K42">
-        <v>0.625</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>201</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>201</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2930,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2938,37 +2929,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.009751176866173503</v>
+        <v>0.1689008042895442</v>
       </c>
       <c r="C43">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D43">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="E43">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>2945</v>
+        <v>310</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K43">
-        <v>0.62</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L43">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2980,21 +2971,45 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.08024691358024691</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>17</v>
+      </c>
+      <c r="E44">
+        <v>0.24</v>
+      </c>
+      <c r="F44">
+        <v>0.76</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>149</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K44">
-        <v>0.6129032258064516</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3006,21 +3021,45 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.01118568232662192</v>
+      </c>
+      <c r="C45">
+        <v>35</v>
+      </c>
+      <c r="D45">
+        <v>107</v>
+      </c>
+      <c r="E45">
+        <v>0.67</v>
+      </c>
+      <c r="F45">
+        <v>0.33</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>3094</v>
+      </c>
       <c r="J45" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K45">
-        <v>0.5955056179775281</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L45">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="M45">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3032,21 +3071,45 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.01108312342569269</v>
+      </c>
+      <c r="C46">
+        <v>22</v>
+      </c>
+      <c r="D46">
+        <v>180</v>
+      </c>
+      <c r="E46">
+        <v>0.88</v>
+      </c>
+      <c r="F46">
+        <v>0.12</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1963</v>
+      </c>
       <c r="J46" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K46">
-        <v>0.5864406779661017</v>
+        <v>0.5661016949152542</v>
       </c>
       <c r="L46">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M46">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3058,21 +3121,45 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.008406186953597848</v>
+      </c>
+      <c r="C47">
+        <v>25</v>
+      </c>
+      <c r="D47">
+        <v>158</v>
+      </c>
+      <c r="E47">
+        <v>0.84</v>
+      </c>
+      <c r="F47">
+        <v>0.16</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>2949</v>
+      </c>
       <c r="J47" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K47">
-        <v>0.5735294117647058</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L47">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="M47">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3084,21 +3171,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>145</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K48">
-        <v>0.5538461538461539</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="L48">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M48">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3110,21 +3197,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K49">
-        <v>0.55</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L49">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M49">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3136,21 +3223,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K50">
-        <v>0.547945205479452</v>
+        <v>0.525</v>
       </c>
       <c r="L50">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M50">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3162,21 +3249,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K51">
-        <v>0.5416666666666666</v>
+        <v>0.525</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3188,21 +3275,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K52">
-        <v>0.5142857142857142</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="L52">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="M52">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3214,21 +3301,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K53">
-        <v>0.5111111111111111</v>
+        <v>0.5188284518828452</v>
       </c>
       <c r="L53">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="M53">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3240,21 +3327,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K54">
-        <v>0.5</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3271,16 +3358,16 @@
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K55">
-        <v>0.5</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L55">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M55">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3292,21 +3379,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K56">
         <v>0.5</v>
       </c>
       <c r="L56">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M56">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3318,21 +3405,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K57">
-        <v>0.4871794871794872</v>
+        <v>0.484375</v>
       </c>
       <c r="L57">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M57">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3344,21 +3431,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K58">
-        <v>0.4814814814814815</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L58">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3370,21 +3457,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K59">
-        <v>0.4811715481171548</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L59">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M59">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3396,21 +3483,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>124</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K60">
-        <v>0.4761904761904762</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L60">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M60">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3422,21 +3509,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K61">
-        <v>0.4262295081967213</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L61">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M61">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3448,21 +3535,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K62">
-        <v>0.421875</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L62">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M62">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3474,21 +3561,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K63">
-        <v>0.4193548387096774</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L63">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M63">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3500,21 +3587,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K64">
-        <v>0.3829787234042553</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L64">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3526,21 +3613,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K65">
-        <v>0.3380281690140845</v>
+        <v>0.3098591549295774</v>
       </c>
       <c r="L65">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M65">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N65">
         <v>0.96</v>
@@ -3552,21 +3639,21 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K66">
-        <v>0.3050847457627119</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M66">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3578,12 +3665,12 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K67">
         <v>0.2978723404255319</v>
@@ -3609,10 +3696,10 @@
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K68">
-        <v>0.2653061224489796</v>
+        <v>0.26</v>
       </c>
       <c r="L68">
         <v>13</v>
@@ -3630,21 +3717,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K69">
-        <v>0.2542372881355932</v>
+        <v>0.2452830188679245</v>
       </c>
       <c r="L69">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3656,21 +3743,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K70">
-        <v>0.2456140350877193</v>
+        <v>0.2204724409448819</v>
       </c>
       <c r="L70">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M70">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3682,47 +3769,47 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K71">
-        <v>0.2440944881889764</v>
+        <v>0.2086330935251799</v>
       </c>
       <c r="L71">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="M71">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>96</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K72">
-        <v>0.2421052631578947</v>
+        <v>0.1894736842105263</v>
       </c>
       <c r="L72">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M72">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3734,151 +3821,151 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K73">
-        <v>0.2388059701492537</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="L73">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M73">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K74">
-        <v>0.1923076923076923</v>
+        <v>0.1770833333333333</v>
       </c>
       <c r="L74">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M74">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N74">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O74">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K75">
-        <v>0.1875</v>
+        <v>0.1754807692307692</v>
       </c>
       <c r="L75">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="M75">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="N75">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>78</v>
+        <v>343</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K76">
-        <v>0.184652278177458</v>
+        <v>0.172093023255814</v>
       </c>
       <c r="L76">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="M76">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="N76">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>340</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K77">
-        <v>0.1785714285714286</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L77">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M77">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K78">
-        <v>0.1782178217821782</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="L78">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M78">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3890,73 +3977,73 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K79">
-        <v>0.1775700934579439</v>
+        <v>0.16</v>
       </c>
       <c r="L79">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M79">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="N79">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O79">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>176</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K80">
-        <v>0.1710526315789474</v>
+        <v>0.1596244131455399</v>
       </c>
       <c r="L80">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M80">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>63</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K81">
-        <v>0.1706730769230769</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="L81">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="M81">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3968,21 +4055,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>345</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K82">
-        <v>0.1559633027522936</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L82">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M82">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3994,21 +4081,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K83">
-        <v>0.154639175257732</v>
+        <v>0.1532846715328467</v>
       </c>
       <c r="L83">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M83">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -4020,177 +4107,177 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K84">
-        <v>0.154320987654321</v>
+        <v>0.1517857142857143</v>
       </c>
       <c r="L84">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M84">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N84">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>137</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K85">
-        <v>0.1538461538461539</v>
+        <v>0.1419753086419753</v>
       </c>
       <c r="L85">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M85">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
-        <v>77</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K86">
-        <v>0.1518987341772152</v>
+        <v>0.1413043478260869</v>
       </c>
       <c r="L86">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M86">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N86">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>134</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K87">
-        <v>0.1495327102803738</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L87">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M87">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N87">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O87">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>182</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K88">
-        <v>0.1326530612244898</v>
+        <v>0.1329113924050633</v>
       </c>
       <c r="L88">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M88">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>85</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K89">
-        <v>0.1313868613138686</v>
+        <v>0.1288343558282209</v>
       </c>
       <c r="L89">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M89">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>119</v>
+        <v>284</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K90">
-        <v>0.1278195488721804</v>
+        <v>0.125</v>
       </c>
       <c r="L90">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M90">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -4202,99 +4289,99 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>116</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K91">
-        <v>0.1266375545851528</v>
+        <v>0.1231802911534155</v>
       </c>
       <c r="L91">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="M91">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="N91">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O91">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P91" t="b">
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>200</v>
+        <v>783</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K92">
-        <v>0.1261261261261261</v>
+        <v>0.1220930232558139</v>
       </c>
       <c r="L92">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M92">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N92">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>97</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K93">
-        <v>0.1217391304347826</v>
+        <v>0.1203703703703704</v>
       </c>
       <c r="L93">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M93">
         <v>14</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K94">
-        <v>0.1212121212121212</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="L94">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M94">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -4306,47 +4393,47 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K95">
-        <v>0.1164383561643836</v>
+        <v>0.1101321585903084</v>
       </c>
       <c r="L95">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M95">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N95">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O95">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="P95" t="b">
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>129</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K96">
-        <v>0.1159420289855072</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="L96">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M96">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -4358,21 +4445,21 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K97">
-        <v>0.1140939597315436</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="L97">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="M97">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -4384,73 +4471,73 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>792</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K98">
-        <v>0.1129032258064516</v>
+        <v>0.1013071895424837</v>
       </c>
       <c r="L98">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M98">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
-        <v>110</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K99">
-        <v>0.1111111111111111</v>
+        <v>0.09420289855072464</v>
       </c>
       <c r="L99">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M99">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="N99">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>800</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K100">
-        <v>0.09883720930232558</v>
+        <v>0.09211986681465038</v>
       </c>
       <c r="L100">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="M100">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -4462,527 +4549,371 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>155</v>
+        <v>818</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K101">
-        <v>0.09876543209876543</v>
+        <v>0.08901734104046242</v>
       </c>
       <c r="L101">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="M101">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N101">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="O101">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P101" t="b">
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>292</v>
+        <v>788</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K102">
-        <v>0.0979020979020979</v>
+        <v>0.08453608247422681</v>
       </c>
       <c r="L102">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="M102">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O102">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102">
-        <v>129</v>
+        <v>444</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K103">
-        <v>0.0949367088607595</v>
+        <v>0.08176100628930817</v>
       </c>
       <c r="L103">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M103">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N103">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O103">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K104">
-        <v>0.09161490683229814</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="L104">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="M104">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="N104">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O104">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>585</v>
+        <v>171</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K105">
-        <v>0.08695652173913043</v>
+        <v>0.07561728395061729</v>
       </c>
       <c r="L105">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M105">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="N105">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O105">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>168</v>
+        <v>599</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="K106">
-        <v>0.08614232209737828</v>
+        <v>0.07449316360207449</v>
       </c>
       <c r="L106">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="M106">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="N106">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q106">
-        <v>244</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K107">
-        <v>0.07630057803468208</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L107">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="M107">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="N107">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O107">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>799</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K108">
-        <v>0.07602064758329423</v>
+        <v>0.04735376044568245</v>
       </c>
       <c r="L108">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="M108">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="N108">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O108">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>1969</v>
+        <v>342</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K109">
-        <v>0.07516339869281045</v>
+        <v>0.04682622268470343</v>
       </c>
       <c r="L109">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M109">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="N109">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="O109">
-        <v>0.07999999999999996</v>
+        <v>0.13</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>283</v>
+        <v>916</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="K110">
-        <v>0.0743801652892562</v>
+        <v>0.04315379623621025</v>
       </c>
       <c r="L110">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="M110">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="N110">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="O110">
-        <v>0.05000000000000004</v>
+        <v>0.16</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>448</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K111">
-        <v>0.06382978723404255</v>
+        <v>0.03886925795053003</v>
       </c>
       <c r="L111">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M111">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N111">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="O111">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>220</v>
+        <v>544</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K112">
-        <v>0.05337078651685393</v>
+        <v>0.02782931354359926</v>
       </c>
       <c r="L112">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M112">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N112">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="O112">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>337</v>
+        <v>524</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K113">
-        <v>0.0472972972972973</v>
+        <v>0.02274162981680354</v>
       </c>
       <c r="L113">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="M113">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="N113">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="O113">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>282</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="K114">
-        <v>0.04320987654320987</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="L114">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="M114">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="N114">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="O114">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>2945</v>
-      </c>
-    </row>
-    <row r="115" spans="10:17">
-      <c r="J115" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K115">
-        <v>0.04058272632674298</v>
-      </c>
-      <c r="L115">
-        <v>39</v>
-      </c>
-      <c r="M115">
-        <v>46</v>
-      </c>
-      <c r="N115">
-        <v>0.85</v>
-      </c>
-      <c r="O115">
-        <v>0.15</v>
-      </c>
-      <c r="P115" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q115">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="116" spans="10:17">
-      <c r="J116" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K116">
-        <v>0.04046242774566474</v>
-      </c>
-      <c r="L116">
-        <v>14</v>
-      </c>
-      <c r="M116">
-        <v>17</v>
-      </c>
-      <c r="N116">
-        <v>0.82</v>
-      </c>
-      <c r="O116">
-        <v>0.18</v>
-      </c>
-      <c r="P116" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q116">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="117" spans="10:17">
-      <c r="J117" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K117">
-        <v>0.03552397868561279</v>
-      </c>
-      <c r="L117">
-        <v>20</v>
-      </c>
-      <c r="M117">
-        <v>24</v>
-      </c>
-      <c r="N117">
-        <v>0.83</v>
-      </c>
-      <c r="O117">
-        <v>0.17</v>
-      </c>
-      <c r="P117" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q117">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="118" spans="10:17">
-      <c r="J118" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K118">
-        <v>0.03142329020332717</v>
-      </c>
-      <c r="L118">
-        <v>17</v>
-      </c>
-      <c r="M118">
-        <v>21</v>
-      </c>
-      <c r="N118">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O118">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P118" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q118">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="119" spans="10:17">
-      <c r="J119" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K119">
-        <v>0.02339688041594454</v>
-      </c>
-      <c r="L119">
-        <v>27</v>
-      </c>
-      <c r="M119">
-        <v>34</v>
-      </c>
-      <c r="N119">
-        <v>0.79</v>
-      </c>
-      <c r="O119">
-        <v>0.21</v>
-      </c>
-      <c r="P119" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q119">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="120" spans="10:17">
-      <c r="J120" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K120">
-        <v>0.02178030303030303</v>
-      </c>
-      <c r="L120">
-        <v>69</v>
-      </c>
-      <c r="M120">
-        <v>102</v>
-      </c>
-      <c r="N120">
-        <v>0.68</v>
-      </c>
-      <c r="O120">
-        <v>0.32</v>
-      </c>
-      <c r="P120" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q120">
-        <v>3099</v>
+        <v>1133</v>
       </c>
     </row>
   </sheetData>
